--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="9030"/>
+    <workbookView windowWidth="18615" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -188,6 +188,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -195,7 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,150 +219,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,36 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,33 +530,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,88 +575,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
